--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="981">
   <si>
     <t>anchor score</t>
   </si>
@@ -349,574 +349,574 @@
     <t>corona</t>
   </si>
   <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>moody</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>impacted</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>contracting</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>moody</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>impacted</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>contracting</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>lack</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>goods</t>
   </si>
   <si>
     <t>use</t>
@@ -3322,10 +3322,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3383,7 +3383,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02753449948908891</v>
+        <v>0.02790274552968029</v>
       </c>
       <c r="C3">
         <v>225</v>
@@ -3404,28 +3404,28 @@
         <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="K3">
-        <v>0.004517761235191192</v>
+        <v>0.007842682344906197</v>
       </c>
       <c r="L3">
-        <v>772</v>
+        <v>221</v>
       </c>
       <c r="M3">
-        <v>812</v>
+        <v>221</v>
       </c>
       <c r="N3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2295</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3433,7 +3433,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01900108941581179</v>
+        <v>0.01925520974028212</v>
       </c>
       <c r="C4">
         <v>239</v>
@@ -3454,28 +3454,28 @@
         <v>276</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="K4">
-        <v>0.004150569817330073</v>
+        <v>0.006878487443477637</v>
       </c>
       <c r="L4">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="M4">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>286</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3483,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01175378806961117</v>
+        <v>0.01191098307946779</v>
       </c>
       <c r="C5">
         <v>41</v>
@@ -3504,28 +3504,28 @@
         <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="K5">
-        <v>0.003969974839334543</v>
+        <v>0.004517761235191192</v>
       </c>
       <c r="L5">
-        <v>299</v>
+        <v>772</v>
       </c>
       <c r="M5">
-        <v>306</v>
+        <v>812</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>77</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3533,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01022037366691404</v>
+        <v>0.01035706081235124</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3554,28 +3554,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="K6">
-        <v>0.003507666968778053</v>
+        <v>0.004150569817330073</v>
       </c>
       <c r="L6">
-        <v>548</v>
+        <v>198</v>
       </c>
       <c r="M6">
-        <v>581</v>
+        <v>200</v>
       </c>
       <c r="N6">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1562</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3583,7 +3583,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00917816649636297</v>
+        <v>0.009300915176560095</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3604,28 +3604,28 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7">
-        <v>0.003218271832410361</v>
+        <v>0.003969974839334543</v>
       </c>
       <c r="L7">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="M7">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2943</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3633,7 +3633,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008803388041894036</v>
+        <v>0.008921124439880917</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -3654,28 +3654,28 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="K8">
-        <v>0.003194176219786196</v>
+        <v>0.003507666968778053</v>
       </c>
       <c r="L8">
-        <v>111</v>
+        <v>548</v>
       </c>
       <c r="M8">
-        <v>112</v>
+        <v>581</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3683,7 +3683,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.00820920167787147</v>
+        <v>0.008318991435099133</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3704,28 +3704,28 @@
         <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="K9">
-        <v>0.003165335427224162</v>
+        <v>0.003218271832410361</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>80</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3733,7 +3733,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008001340048927391</v>
+        <v>0.008108349867413845</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -3754,28 +3754,28 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="K10">
-        <v>0.003076153101198948</v>
+        <v>0.003194176219786196</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3783,7 +3783,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008001340048927391</v>
+        <v>0.008108349867413845</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -3804,28 +3804,28 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="K11">
-        <v>0.003008172437114509</v>
+        <v>0.003165335427224162</v>
       </c>
       <c r="L11">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="N11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>613</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3833,7 +3833,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007787932522124917</v>
+        <v>0.007892088231103822</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3854,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K12">
-        <v>0.002937306964683672</v>
+        <v>0.003076153101198948</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3883,7 +3883,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007568509982801938</v>
+        <v>0.007669731137573521</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -3904,28 +3904,28 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K13">
-        <v>0.00285153748231068</v>
+        <v>0.003008172437114509</v>
       </c>
       <c r="L13">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="M13">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="N13">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O13">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>599</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3933,7 +3933,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007568509982801938</v>
+        <v>0.007669731137573521</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -3954,28 +3954,28 @@
         <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="K14">
-        <v>0.002834098915592628</v>
+        <v>0.002937306964683672</v>
       </c>
       <c r="L14">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3983,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007342533197090375</v>
+        <v>0.007440732141248076</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -4004,28 +4004,28 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="K15">
-        <v>0.002791563452179175</v>
+        <v>0.00285153748231068</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4033,7 +4033,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007109377197826531</v>
+        <v>0.007204457916661014</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -4054,28 +4054,28 @@
         <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="K16">
-        <v>0.002791563452179175</v>
+        <v>0.002834098915592628</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4083,7 +4083,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007109377197826531</v>
+        <v>0.007204457916661014</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K17">
-        <v>0.002741260891474994</v>
+        <v>0.002791563452179175</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4133,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006868310893631522</v>
+        <v>0.006960167594826787</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -4154,28 +4154,28 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="K18">
-        <v>0.002726998404071555</v>
+        <v>0.002791563452179175</v>
       </c>
       <c r="L18">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>410</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4183,7 +4183,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006618469983476471</v>
+        <v>0.006706985315565725</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -4204,16 +4204,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K19">
-        <v>0.002690017851747093</v>
+        <v>0.002741260891474994</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>280</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4233,7 +4233,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006618469983476471</v>
+        <v>0.006706985315565725</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4254,28 +4254,28 @@
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="K20">
-        <v>0.002690017851747093</v>
+        <v>0.002726998404071555</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4283,7 +4283,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006358820276810838</v>
+        <v>0.006443863057076215</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -4304,16 +4304,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K21">
-        <v>0.002584485553817931</v>
+        <v>0.002690017851747093</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>113</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4333,7 +4333,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006358820276810838</v>
+        <v>0.006443863057076215</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -4354,16 +4354,16 @@
         <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K22">
-        <v>0.002584485553817931</v>
+        <v>0.002690017851747093</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4383,7 +4383,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006358820276810838</v>
+        <v>0.006443863057076215</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -4404,28 +4404,28 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="K23">
-        <v>0.002561559129623518</v>
+        <v>0.002584485553817931</v>
       </c>
       <c r="L23">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4433,7 +4433,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006358820276810838</v>
+        <v>0.006443863057076215</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4454,28 +4454,28 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K24">
-        <v>0.002530069237290029</v>
+        <v>0.002584485553817931</v>
       </c>
       <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>24</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>23</v>
-      </c>
-      <c r="M24">
-        <v>23</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4483,7 +4483,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006088106906369357</v>
+        <v>0.006169529169514396</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4504,28 +4504,28 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K25">
-        <v>0.002447397666586394</v>
+        <v>0.002561559129623518</v>
       </c>
       <c r="L25">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M25">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>698</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4533,7 +4533,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006088106906369357</v>
+        <v>0.006169529169514396</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4554,28 +4554,28 @@
         <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="K26">
-        <v>0.002424582615859535</v>
+        <v>0.002530069237290029</v>
       </c>
       <c r="L26">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4583,7 +4583,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006088106906369357</v>
+        <v>0.006169529169514396</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4604,28 +4604,28 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="K27">
-        <v>0.002299562874946545</v>
+        <v>0.002447397666586394</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4633,7 +4633,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005804782174550901</v>
+        <v>0.005882415256391406</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4654,28 +4654,28 @@
         <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="K28">
-        <v>0.002299562874946545</v>
+        <v>0.002424582615859535</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4683,7 +4683,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005804782174550901</v>
+        <v>0.005882415256391406</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4704,7 +4704,7 @@
         <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K29">
         <v>0.002299562874946545</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4733,7 +4733,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005506899897817782</v>
+        <v>0.005580549105936057</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4754,28 +4754,28 @@
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="K30">
-        <v>0.002275352459094029</v>
+        <v>0.002299562874946545</v>
       </c>
       <c r="L30">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4783,7 +4783,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005506899897817782</v>
+        <v>0.005580549105936057</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4804,16 +4804,16 @@
         <v>21</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K31">
-        <v>0.002238230145320222</v>
+        <v>0.002299562874946545</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4833,7 +4833,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005506899897817782</v>
+        <v>0.005580549105936057</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4854,28 +4854,28 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="K32">
-        <v>0.002238230145320222</v>
+        <v>0.002275352459094029</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4883,7 +4883,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005506899897817782</v>
+        <v>0.005580549105936057</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4904,16 +4904,16 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K33">
-        <v>0.002175168717825804</v>
+        <v>0.002238230145320222</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4933,7 +4933,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005506899897817782</v>
+        <v>0.005580549105936057</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -4954,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K34">
-        <v>0.002175168717825804</v>
+        <v>0.002238230145320222</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4983,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005506899897817782</v>
+        <v>0.005580549105936057</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K35">
-        <v>0.002110223618149441</v>
+        <v>0.002175168717825804</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5033,7 +5033,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005506899897817782</v>
+        <v>0.005580549105936057</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -5054,16 +5054,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K36">
-        <v>0.002110223618149441</v>
+        <v>0.002175168717825804</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5083,7 +5083,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005191955014749946</v>
+        <v>0.005261392154069215</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -5104,7 +5104,7 @@
         <v>72</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K37">
         <v>0.002110223618149441</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5133,7 +5133,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005191955014749946</v>
+        <v>0.005261392154069215</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K38">
         <v>0.002110223618149441</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5183,7 +5183,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005191955014749946</v>
+        <v>0.005261392154069215</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -5204,28 +5204,28 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="K39">
-        <v>0.002108528874831019</v>
+        <v>0.002110223618149441</v>
       </c>
       <c r="L39">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>204</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5233,7 +5233,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005191955014749946</v>
+        <v>0.005261392154069215</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -5254,28 +5254,28 @@
         <v>8</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="K40">
-        <v>0.002077619408622572</v>
+        <v>0.002110223618149441</v>
       </c>
       <c r="L40">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5283,7 +5283,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004856629208184285</v>
+        <v>0.004921581704496884</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5304,28 +5304,28 @@
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K41">
-        <v>0.002055460437826175</v>
+        <v>0.002108528874831019</v>
       </c>
       <c r="L41">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="M41">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5333,7 +5333,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004856629208184285</v>
+        <v>0.004921581704496884</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5354,28 +5354,28 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="K42">
-        <v>0.002043215232466586</v>
+        <v>0.002055460437826175</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5383,7 +5383,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004856629208184285</v>
+        <v>0.004921581704496884</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5404,7 +5404,7 @@
         <v>159</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K43">
         <v>0.002043215232466586</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5433,7 +5433,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K44">
         <v>0.002043215232466586</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5483,7 +5483,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5504,7 +5504,7 @@
         <v>143</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K45">
         <v>0.002043215232466586</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5533,7 +5533,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5554,28 +5554,28 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>167</v>
+        <v>326</v>
       </c>
       <c r="K46">
-        <v>0.002013865552677583</v>
+        <v>0.002043215232466586</v>
       </c>
       <c r="L46">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5583,7 +5583,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5604,28 +5604,28 @@
         <v>26</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K47">
-        <v>0.002005072749252718</v>
+        <v>0.002013865552677583</v>
       </c>
       <c r="L47">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M47">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5633,7 +5633,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5654,28 +5654,28 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="K48">
-        <v>0.001973933447148423</v>
+        <v>0.002005072749252718</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5683,7 +5683,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5704,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K49">
         <v>0.001973933447148423</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5733,7 +5733,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5754,28 +5754,28 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="K50">
-        <v>0.001917216626423038</v>
+        <v>0.001973933447148423</v>
       </c>
       <c r="L50">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5783,7 +5783,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5804,28 +5804,28 @@
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K51">
-        <v>0.001905970106993473</v>
+        <v>0.001917216626423038</v>
       </c>
       <c r="L51">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="M51">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>216</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5833,7 +5833,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5854,16 +5854,16 @@
         <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K52">
-        <v>0.001890940190899834</v>
+        <v>0.001905970106993473</v>
       </c>
       <c r="L52">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="M52">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="N52">
         <v>0.9399999999999999</v>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>487</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5883,7 +5883,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004496364938079462</v>
+        <v>0.004556499264696068</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5907,13 +5907,13 @@
         <v>155</v>
       </c>
       <c r="K53">
-        <v>0.001874582392941313</v>
+        <v>0.001890940190899834</v>
       </c>
       <c r="L53">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M53">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="N53">
         <v>0.9399999999999999</v>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>58</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5933,7 +5933,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004104600838935735</v>
+        <v>0.004159495717549567</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5954,7 +5954,7 @@
         <v>25</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K54">
         <v>0.001872731051754591</v>
@@ -5983,7 +5983,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004104600838935735</v>
+        <v>0.004159495717549567</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004104600838935735</v>
+        <v>0.004159495717549567</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6083,7 +6083,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004104600838935735</v>
+        <v>0.004159495717549567</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6133,7 +6133,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004104600838935735</v>
+        <v>0.004159495717549567</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6183,7 +6183,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003671266598545188</v>
+        <v>0.003720366070624038</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6233,7 +6233,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003671266598545188</v>
+        <v>0.003720366070624038</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6254,7 +6254,7 @@
         <v>22</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K60">
         <v>0.001756780740182047</v>
@@ -6283,7 +6283,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003671266598545188</v>
+        <v>0.003720366070624038</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6333,7 +6333,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003671266598545188</v>
+        <v>0.003720366070624038</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6383,7 +6383,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003671266598545188</v>
+        <v>0.003720366070624038</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6433,7 +6433,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003671266598545188</v>
+        <v>0.003720366070624038</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6483,7 +6483,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003671266598545188</v>
+        <v>0.003720366070624038</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6533,7 +6533,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.00357817897395213</v>
+        <v>0.00362603349334179</v>
       </c>
       <c r="C66">
         <v>40</v>
@@ -6583,7 +6583,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6633,7 +6633,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6683,7 +6683,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6733,7 +6733,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6783,7 +6783,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6833,7 +6833,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6883,7 +6883,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6933,7 +6933,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6983,7 +6983,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7033,7 +7033,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7083,7 +7083,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7133,7 +7133,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7154,7 +7154,7 @@
         <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K78">
         <v>0.001667628247447504</v>
@@ -7183,7 +7183,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7204,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K79">
         <v>0.001627613502190552</v>
@@ -7233,7 +7233,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7254,7 +7254,7 @@
         <v>20</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K80">
         <v>0.001598320051539212</v>
@@ -7283,7 +7283,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7333,7 +7333,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003179410138405419</v>
+        <v>0.003221931528538108</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7383,7 +7383,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002995039007667184</v>
+        <v>0.003035094620678317</v>
       </c>
       <c r="C83">
         <v>33</v>
@@ -7433,7 +7433,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7454,7 +7454,7 @@
         <v>25</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K84">
         <v>0.001509112748431723</v>
@@ -7483,7 +7483,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7583,7 +7583,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7633,7 +7633,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7733,7 +7733,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7783,7 +7783,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7833,7 +7833,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -7883,7 +7883,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -7933,7 +7933,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8004,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K95">
         <v>0.001453732354092593</v>
@@ -8033,7 +8033,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8054,7 +8054,7 @@
         <v>37</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K96">
         <v>0.001448481452717862</v>
@@ -8083,7 +8083,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8133,7 +8133,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8183,7 +8183,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8233,7 +8233,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8283,7 +8283,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002595977507374973</v>
+        <v>0.002630696077034608</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8333,7 +8333,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002187581781335427</v>
+        <v>0.002216838471828959</v>
       </c>
       <c r="C102">
         <v>14</v>
@@ -8383,7 +8383,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002113579653090145</v>
+        <v>0.002141846640076175</v>
       </c>
       <c r="C103">
         <v>7</v>
@@ -8433,7 +8433,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002112684409294085</v>
+        <v>0.002140939423301149</v>
       </c>
       <c r="C104">
         <v>11</v>
@@ -8483,7 +8483,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002003157754409981</v>
+        <v>0.002029947960349032</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -8533,25 +8533,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001883358193006071</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>373</v>
@@ -8583,7 +8583,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>374</v>
@@ -8633,7 +8633,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8651,10 +8651,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K108">
         <v>0.001341182501569956</v>
@@ -8683,7 +8683,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K109">
         <v>0.001292492619853363</v>
@@ -8733,7 +8733,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>375</v>
@@ -8783,7 +8783,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>376</v>
@@ -8833,7 +8833,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>377</v>
@@ -8883,7 +8883,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>378</v>
@@ -8933,7 +8933,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>379</v>
@@ -8983,7 +8983,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>380</v>
@@ -9033,7 +9033,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>381</v>
@@ -9083,7 +9083,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>382</v>
@@ -9133,7 +9133,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>383</v>
@@ -9183,7 +9183,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>384</v>
@@ -9233,7 +9233,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>385</v>
@@ -9283,7 +9283,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>386</v>
@@ -9333,7 +9333,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>387</v>
@@ -9383,7 +9383,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>388</v>
@@ -9433,7 +9433,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>389</v>
@@ -9483,7 +9483,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>390</v>
@@ -9533,7 +9533,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>391</v>
@@ -9583,7 +9583,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>392</v>
@@ -9633,7 +9633,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>393</v>
@@ -9683,7 +9683,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>394</v>
@@ -9733,7 +9733,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>395</v>
@@ -9783,7 +9783,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9833,7 +9833,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9851,10 +9851,10 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K132">
         <v>0.001260484879897484</v>
@@ -9883,7 +9883,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9901,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K133">
         <v>0.001258998253661441</v>
@@ -9933,7 +9933,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9951,10 +9951,10 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K134">
         <v>0.001229672231626362</v>
@@ -9983,7 +9983,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10001,10 +10001,10 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K135">
         <v>0.001228189910054914</v>
@@ -10033,7 +10033,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10051,10 +10051,10 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K136">
         <v>0.001228189910054914</v>
@@ -10083,7 +10083,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10101,10 +10101,10 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K137">
         <v>0.001217526403020113</v>
@@ -10133,7 +10133,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10151,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K138">
         <v>0.001202194258329861</v>
@@ -10183,7 +10183,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10201,10 +10201,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K139">
         <v>0.001195599681850057</v>
@@ -10233,7 +10233,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10251,10 +10251,10 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K140">
         <v>0.001195599681850057</v>
@@ -10283,7 +10283,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>397</v>
@@ -10333,7 +10333,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>398</v>
@@ -10383,7 +10383,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>399</v>
@@ -10433,7 +10433,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>400</v>
@@ -10483,7 +10483,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>401</v>
@@ -10533,7 +10533,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001835633299272594</v>
+        <v>0.001860183035312019</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>402</v>
@@ -10583,25 +10583,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001835633299272594</v>
+        <v>0.001802544816871505</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>403</v>
@@ -10633,13 +10633,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001778755760303743</v>
+        <v>0.001762560569386188</v>
       </c>
       <c r="C148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D148">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E148">
         <v>0.9399999999999999</v>
@@ -10651,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>404</v>
@@ -10683,25 +10683,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001739299204289031</v>
+        <v>0.001655669146764619</v>
       </c>
       <c r="C149">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D149">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E149">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F149">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>216</v>
+        <v>698</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>405</v>
@@ -10733,13 +10733,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001659181339910154</v>
+        <v>0.001611854656233382</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E150">
         <v>0.9399999999999999</v>
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>58</v>
+        <v>487</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>406</v>
@@ -10783,25 +10783,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001633818479518385</v>
+        <v>0.001595717369615334</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D151">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="E151">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="F151">
-        <v>0.04000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>698</v>
+        <v>34</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>407</v>
@@ -10833,25 +10833,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001590582230029468</v>
+        <v>0.001554734927611288</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D152">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>487</v>
+        <v>410</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>408</v>
@@ -10883,25 +10883,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001574657914995046</v>
+        <v>0.001507935834975702</v>
       </c>
       <c r="C153">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D153">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="E153">
-        <v>0.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F153">
-        <v>0.9</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>409</v>
@@ -10933,25 +10933,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0015342163381179</v>
+        <v>0.001470880253056554</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E154">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F154">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>410</v>
+        <v>286</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>410</v>
@@ -10983,25 +10983,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001488034875763464</v>
+        <v>0.001393692398608357</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>411</v>
@@ -11033,25 +11033,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001451468334297664</v>
+        <v>0.001324952032587571</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="E156">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F156">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>412</v>
@@ -11083,13 +11083,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001375299165331585</v>
+        <v>0.00128476739880742</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E157">
         <v>0.98</v>
@@ -11101,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>413</v>
@@ -11133,13 +11133,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001307465999198674</v>
+        <v>0.001281346787558675</v>
       </c>
       <c r="C158">
         <v>3</v>
       </c>
       <c r="D158">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E158">
         <v>0.97</v>
@@ -11151,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>414</v>
@@ -11183,25 +11183,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.00126781170148407</v>
+        <v>0.001263895163376387</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D159">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E159">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>415</v>
@@ -11233,13 +11233,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001264436233697907</v>
+        <v>0.001255285971481546</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
       <c r="D160">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E160">
         <v>0.97</v>
@@ -11251,7 +11251,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>416</v>
@@ -11283,25 +11283,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001247214927048357</v>
+        <v>0.001223689455160595</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>417</v>
@@ -11333,25 +11333,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001238719354826699</v>
+        <v>0.001195698162853223</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D162">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>418</v>
@@ -11383,13 +11383,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.00120753983302764</v>
+        <v>0.001144656672254756</v>
       </c>
       <c r="C163">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E163">
         <v>0.92</v>
@@ -11401,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>419</v>
@@ -11433,25 +11433,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001179917955355552</v>
+        <v>0.001131232720608021</v>
       </c>
       <c r="C164">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D164">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E164">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>420</v>
@@ -11483,25 +11483,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001129550084017912</v>
+        <v>0.001117859778360568</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E165">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F165">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>421</v>
@@ -11533,25 +11533,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.00111630329475965</v>
+        <v>0.001096646304588183</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E166">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F166">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>422</v>
@@ -11583,25 +11583,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001103106841704934</v>
+        <v>0.001085579767979431</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F167">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>423</v>
@@ -11633,25 +11633,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001082173332415455</v>
+        <v>0.00107665811560323</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E168">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F168">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>424</v>
@@ -11683,25 +11683,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001071252846247686</v>
+        <v>0.001069016907170273</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E169">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F169">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>425</v>
@@ -11733,25 +11733,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001062448937236903</v>
+        <v>0.00103144186187724</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E170">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F170">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>426</v>
@@ -11783,28 +11783,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001054908573530777</v>
+        <v>0.00102498540800258</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="E171">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>16</v>
+        <v>1078</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K171">
         <v>0.00112649688754142</v>
@@ -11833,28 +11833,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001017829424300713</v>
+        <v>0.0009887030495210839</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>67</v>
       </c>
       <c r="E172">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F172">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K172">
         <v>0.001124549756754285</v>
@@ -11883,28 +11883,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001011458179373433</v>
+        <v>0.000984892383077425</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1078</v>
+        <v>99</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K173">
         <v>0.001062113122330136</v>
@@ -11933,25 +11933,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0009756546567412594</v>
+        <v>0.0009742688463546934</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E174">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F174">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>427</v>
@@ -11983,25 +11983,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0009718942815074173</v>
+        <v>0.0009005471801882978</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>428</v>
@@ -12033,25 +12033,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0009614109487417141</v>
+        <v>0.0008944223151768616</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E176">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F176">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>429</v>
@@ -12083,25 +12083,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008886622230926843</v>
+        <v>0.0008627283831852063</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E177">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F177">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>430</v>
@@ -12133,13 +12133,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.000882618190889877</v>
+        <v>0.0008566392265151209</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E178">
         <v>0.96</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>431</v>
@@ -12183,25 +12183,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008513425390618811</v>
+        <v>0.0008394352676324617</v>
       </c>
       <c r="C179">
         <v>3</v>
       </c>
       <c r="D179">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>432</v>
@@ -12233,25 +12233,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.000845333743940157</v>
+        <v>0.0008371235240009836</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E180">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F180">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>433</v>
@@ -12283,25 +12283,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0008283568340313809</v>
+        <v>0.0008309445108177412</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F181">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>434</v>
@@ -12333,25 +12333,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0008260755995997322</v>
+        <v>0.0008259248282180361</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E182">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>435</v>
@@ -12383,13 +12383,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0008199781338447552</v>
+        <v>0.0008114740782958628</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E183">
         <v>0.98</v>
@@ -12401,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>436</v>
@@ -12433,25 +12433,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0008150246984263679</v>
+        <v>0.00079764234467085</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>42</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>437</v>
@@ -12483,25 +12483,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008007646620465861</v>
+        <v>0.0007595633701372493</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E185">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F185">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>438</v>
@@ -12533,25 +12533,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.000787115472506223</v>
+        <v>0.0007570839864219639</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E186">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>439</v>
@@ -12583,13 +12583,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007495390446337336</v>
+        <v>0.0007512609402987765</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E187">
         <v>0.97</v>
@@ -12601,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>440</v>
@@ -12633,25 +12633,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007470923825456189</v>
+        <v>0.0007426997160626003</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>441</v>
@@ -12683,13 +12683,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007413461859810802</v>
+        <v>0.0007426997160626003</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E189">
         <v>0.97</v>
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>442</v>
@@ -12733,13 +12733,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007328979483656734</v>
+        <v>0.0007338647237954154</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E190">
         <v>0.97</v>
@@ -12751,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>443</v>
@@ -12783,13 +12783,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0007328979483656734</v>
+        <v>0.0007338647237954154</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E191">
         <v>0.97</v>
@@ -12801,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>444</v>
@@ -12833,25 +12833,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007241795557684953</v>
+        <v>0.0007315226699133555</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
         <v>34</v>
       </c>
       <c r="E192">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>445</v>
@@ -12883,13 +12883,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007241795557684953</v>
+        <v>0.0006954388793785508</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E193">
         <v>0.97</v>
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>446</v>
@@ -12933,25 +12933,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007218684111053151</v>
+        <v>0.0006865868456994343</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>447</v>
@@ -12983,25 +12983,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0006862608358225126</v>
+        <v>0.0006627806944985888</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E195">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F195">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>448</v>
@@ -13033,25 +13033,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006775256267171661</v>
+        <v>0.0006604509731693381</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>449</v>
@@ -13083,25 +13083,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006540336568183759</v>
+        <v>0.0006255238301194261</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E197">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F197">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>450</v>
@@ -13133,25 +13133,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006517346819493351</v>
+        <v>0.0006118447275802973</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="D198">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>451</v>
@@ -13183,25 +13183,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006172684893146293</v>
+        <v>0.0005986674728110127</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E199">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F199">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>452</v>
@@ -13233,25 +13233,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006037699165138202</v>
+        <v>0.0005986674728110127</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>453</v>
@@ -13283,7 +13283,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005907665683548902</v>
+        <v>0.0005986674728110127</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13301,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>454</v>
@@ -13333,25 +13333,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005907665683548902</v>
+        <v>0.0005944501181775231</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>455</v>
@@ -13383,13 +13383,13 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005907665683548902</v>
+        <v>0.0005840170467833076</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E203">
         <v>0.95</v>
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>21</v>
+        <v>524</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>456</v>
@@ -13433,25 +13433,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0005866048721921379</v>
+        <v>0.0005686278824925634</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E204">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F204">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>457</v>
@@ -13483,13 +13483,13 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005763094910918056</v>
+        <v>0.0005686278824925634</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E205">
         <v>0.95</v>
@@ -13501,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>524</v>
+        <v>41</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>458</v>
@@ -13533,25 +13533,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005611234250521653</v>
+        <v>0.0005576179789692919</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E206">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F206">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>459</v>
@@ -13583,13 +13583,13 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005611234250521653</v>
+        <v>0.0005524290447732178</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E207">
         <v>0.95</v>
@@ -13601,7 +13601,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>460</v>
@@ -13633,25 +13633,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005502588245556308</v>
+        <v>0.0005524290447732178</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E208">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F208">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>461</v>
@@ -13683,25 +13683,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005451383712361272</v>
+        <v>0.0005483453664686753</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>462</v>
@@ -13733,25 +13733,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005451383712361272</v>
+        <v>0.0005468470908276094</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D210">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>60</v>
+        <v>929</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>463</v>
@@ -13783,25 +13783,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005411085872110955</v>
+        <v>0.0005380802650860072</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E211">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="F211">
-        <v>0.13</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>464</v>
@@ -13833,28 +13833,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005396300850389863</v>
+        <v>0.000532633211521811</v>
       </c>
       <c r="C212">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D212">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E212">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>929</v>
+        <v>47</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K212">
         <v>0.001047534483548216</v>
@@ -13883,28 +13883,28 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005309789593407531</v>
+        <v>0.0005177190788440835</v>
       </c>
       <c r="C213">
         <v>2</v>
       </c>
       <c r="D213">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E213">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F213">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K213">
         <v>0.0009873918201224758</v>
@@ -13933,13 +13933,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005256037931793852</v>
+        <v>0.0005122418828339812</v>
       </c>
       <c r="C214">
         <v>3</v>
       </c>
       <c r="D214">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E214">
         <v>0.88</v>
@@ -13951,10 +13951,10 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K214">
         <v>0.0009819196329181002</v>
@@ -13983,28 +13983,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005108864895305999</v>
+        <v>0.0004980964642695095</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E215">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K215">
         <v>0.0009584497149741424</v>
@@ -14033,28 +14033,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005054815787277764</v>
+        <v>0.0004980964642695095</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K216">
         <v>0.0009476163047092888</v>
@@ -14083,7 +14083,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004915228440999565</v>
+        <v>0.0004980964642695095</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14101,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>465</v>
@@ -14133,25 +14133,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004915228440999565</v>
+        <v>0.0004964698976359727</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E218">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>62</v>
+        <v>340</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>466</v>
@@ -14183,25 +14183,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0004915228440999565</v>
+        <v>0.0004777074693644671</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F219">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>467</v>
@@ -14233,25 +14233,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004899177440537102</v>
+        <v>0.0004777074693644671</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>468</v>
@@ -14283,13 +14283,13 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0004714029326310739</v>
+        <v>0.0004559478116464622</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E221">
         <v>0.93</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>469</v>
@@ -14333,25 +14333,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0004714029326310739</v>
+        <v>0.0004326395559052644</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>470</v>
@@ -14383,25 +14383,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0004499304476499152</v>
+        <v>0.0004075695640728989</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E223">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F223">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>471</v>
@@ -14433,25 +14433,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0004269298022433583</v>
+        <v>0.000399144117440151</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>472</v>
@@ -14483,25 +14483,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0004021906712296928</v>
+        <v>0.0003804802042649707</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E225">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F225">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>473</v>
@@ -14533,25 +14533,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003938764192949513</v>
+        <v>0.0003804802042649707</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E226">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F226">
-        <v>0.15</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>474</v>
@@ -14583,25 +14583,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0003754588228172226</v>
+        <v>0.0003510572312733874</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E227">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F227">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>475</v>
@@ -14633,25 +14633,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003754588228172226</v>
+        <v>0.0003510572312733874</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E228">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F228">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>476</v>
@@ -14683,7 +14683,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0003464241590439938</v>
+        <v>0.0003510572312733874</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14701,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>477</v>
@@ -14733,25 +14733,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0003464241590439938</v>
+        <v>0.0003457013939560588</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E230">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F230">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>478</v>
@@ -14783,25 +14783,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0003464241590439938</v>
+        <v>0.0002840218215831697</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E231">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F231">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>479</v>
@@ -14833,25 +14833,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003411390053045253</v>
+        <v>0.0002835736875746494</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>480</v>
@@ -14883,25 +14883,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002802734481075811</v>
+        <v>0.0002835736875746494</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>481</v>
@@ -14933,7 +14933,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002798312283405148</v>
+        <v>0.0002835736875746494</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>482</v>
@@ -14983,7 +14983,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002798312283405148</v>
+        <v>0.0002835736875746494</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15033,7 +15033,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002798312283405148</v>
+        <v>0.0002835736875746494</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15051,7 +15051,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>484</v>
@@ -15083,7 +15083,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002798312283405148</v>
+        <v>0.0002835736875746494</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>485</v>
@@ -15133,25 +15133,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002798312283405148</v>
+        <v>0.0002444477999319713</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E238">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F238">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>486</v>
@@ -15183,25 +15183,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002798312283405148</v>
+        <v>0.0002444477999319713</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E239">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F239">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>487</v>
@@ -15233,25 +15233,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002412217039780634</v>
+        <v>0.0002149388288302392</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F240">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>488</v>
@@ -15283,25 +15283,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002412217039780634</v>
+        <v>0.000200833756046415</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F241">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>489</v>
@@ -15333,25 +15333,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002121021770533776</v>
+        <v>0.000200833756046415</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>490</v>
@@ -15383,7 +15383,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001981832557434065</v>
+        <v>0.000200833756046415</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15401,7 +15401,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>491</v>
@@ -15433,7 +15433,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001981832557434065</v>
+        <v>0.000200833756046415</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>492</v>
@@ -15483,7 +15483,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001981832557434065</v>
+        <v>0.000200833756046415</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15501,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>493</v>
@@ -15533,7 +15533,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001981832557434065</v>
+        <v>0.000200833756046415</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15551,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>494</v>
@@ -15583,25 +15583,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001981832557434065</v>
+        <v>0.0001773902320370222</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E247">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F247">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>495</v>
@@ -15633,25 +15633,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001981832557434065</v>
+        <v>0.0001519847034061567</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F248">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>496</v>
@@ -15683,25 +15683,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.000175049127269474</v>
+        <v>0.0001519847034061567</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F249">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>497</v>
@@ -15733,7 +15733,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.000149978887698873</v>
+        <v>0.0001519847034061567</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15751,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>498</v>
@@ -15783,7 +15783,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.000149978887698873</v>
+        <v>0.0001519847034061567</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>499</v>
@@ -15833,25 +15833,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.000149978887698873</v>
+        <v>0.0001379238892041531</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F252">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>500</v>
@@ -15883,25 +15883,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.000149978887698873</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>501</v>
@@ -15933,13 +15933,13 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001361036408687924</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E254">
         <v>0.75</v>
@@ -15951,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>502</v>
@@ -15983,7 +15983,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16001,7 +16001,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>503</v>
@@ -16033,7 +16033,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16051,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>504</v>
@@ -16083,7 +16083,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>505</v>
@@ -16133,7 +16133,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16151,7 +16151,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>506</v>
@@ -16183,7 +16183,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>507</v>
@@ -16233,7 +16233,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16251,7 +16251,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>508</v>
@@ -16283,7 +16283,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>509</v>
@@ -16333,7 +16333,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16351,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>510</v>
@@ -16383,7 +16383,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>9.623980740250205E-05</v>
+        <v>9.752691734387912E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16401,7 +16401,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>511</v>
@@ -16433,25 +16433,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>9.623980740250205E-05</v>
+        <v>9.702460775930133E-05</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F264">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>512</v>
@@ -16483,25 +16483,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>9.623980740250205E-05</v>
+        <v>9.702460775930133E-05</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E265">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F265">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>513</v>
@@ -16533,25 +16533,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>9.57441270406821E-05</v>
+        <v>5.613883238428425E-05</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F266">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>514</v>
@@ -16583,25 +16583,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>9.57441270406821E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E267">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F267">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>515</v>
@@ -16633,13 +16633,13 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>5.539794103626454E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E268">
         <v>0.67</v>
@@ -16651,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>516</v>
@@ -16683,7 +16683,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16701,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>517</v>
@@ -16733,7 +16733,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16751,7 +16751,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>518</v>
@@ -16783,7 +16783,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16801,7 +16801,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>519</v>
@@ -16833,7 +16833,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -16851,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>520</v>
@@ -16883,7 +16883,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -16901,7 +16901,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>521</v>
@@ -16933,7 +16933,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -16951,7 +16951,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>522</v>
@@ -16983,7 +16983,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17001,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>523</v>
@@ -17033,7 +17033,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>524</v>
@@ -17083,7 +17083,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17101,7 +17101,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>525</v>
@@ -17133,7 +17133,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>526</v>
@@ -17183,7 +17183,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17201,7 +17201,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>527</v>
@@ -17233,7 +17233,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>3.917225977051517E-05</v>
+        <v>3.969614906682235E-05</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17251,10 +17251,10 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K280">
         <v>0.0009119570223271992</v>
@@ -17283,28 +17283,28 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>3.917225977051517E-05</v>
+        <v>1.939882584951063E-05</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E281">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F281">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K281">
         <v>0.0009013088194509512</v>
@@ -17333,28 +17333,28 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>3.917225977051517E-05</v>
+        <v>0</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E282">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F282">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K282">
         <v>0.0008900535355827584</v>
@@ -17383,28 +17383,28 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>1.914281015372165E-05</v>
+        <v>0</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F283">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K283">
         <v>0.0008852813797195441</v>
@@ -17451,10 +17451,10 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K284">
         <v>0.0008298518941196402</v>
@@ -17501,10 +17501,10 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K285">
         <v>0.0007780510955796026</v>
@@ -17551,10 +17551,10 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K286">
         <v>0.0007780510955796026</v>
@@ -17601,10 +17601,10 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K287">
         <v>0.0007780510955796026</v>
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>528</v>
@@ -17701,7 +17701,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>529</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>530</v>
@@ -17801,7 +17801,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>531</v>
@@ -17851,7 +17851,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>532</v>
@@ -17901,7 +17901,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>533</v>
@@ -17929,30 +17929,6 @@
       </c>
     </row>
     <row r="294" spans="1:17">
-      <c r="A294" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B294">
-        <v>0</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-      <c r="D294">
-        <v>2</v>
-      </c>
-      <c r="E294">
-        <v>0.5</v>
-      </c>
-      <c r="F294">
-        <v>0.5</v>
-      </c>
-      <c r="G294" t="b">
-        <v>1</v>
-      </c>
-      <c r="H294">
-        <v>43</v>
-      </c>
       <c r="J294" s="1" t="s">
         <v>534</v>
       </c>
@@ -17979,30 +17955,6 @@
       </c>
     </row>
     <row r="295" spans="1:17">
-      <c r="A295" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295">
-        <v>2</v>
-      </c>
-      <c r="E295">
-        <v>0.5</v>
-      </c>
-      <c r="F295">
-        <v>0.5</v>
-      </c>
-      <c r="G295" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295">
-        <v>56</v>
-      </c>
       <c r="J295" s="1" t="s">
         <v>535</v>
       </c>
@@ -21358,7 +21310,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K424">
         <v>0.0007407187368436912</v>
@@ -21384,7 +21336,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K425">
         <v>0.0007029391965291392</v>
@@ -21410,7 +21362,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K426">
         <v>0.0007029391965291392</v>
@@ -21436,7 +21388,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K427">
         <v>0.0006882088886248374</v>
@@ -21462,7 +21414,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K428">
         <v>0.0006646998266783312</v>
@@ -21488,7 +21440,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K429">
         <v>0.0006646998266783312</v>
@@ -21514,7 +21466,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K430">
         <v>0.0006010971291649305</v>
@@ -21540,7 +21492,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K431">
         <v>0.0005759865123537906</v>
@@ -21566,7 +21518,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K432">
         <v>0.000571711787702867</v>
@@ -21592,7 +21544,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K433">
         <v>0.0005471065286123863</v>
@@ -21618,7 +21570,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K434">
         <v>0.0005471065286123863</v>
@@ -21644,7 +21596,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K435">
         <v>0.0005471065286123863</v>
@@ -21670,7 +21622,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K436">
         <v>0.0005419697616667938</v>
@@ -29964,7 +29916,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K755">
         <v>0.0005124414204659774</v>
@@ -29990,7 +29942,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K756">
         <v>0.0005069193374150859</v>
@@ -30016,7 +29968,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K757">
         <v>0.0005069193374150859</v>
@@ -30042,7 +29994,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K758">
         <v>0.0004825695034921606</v>
@@ -30068,7 +30020,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K759">
         <v>0.0004662293616891526</v>
@@ -30094,7 +30046,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K760">
         <v>0.0004525523049790582</v>
@@ -30120,7 +30072,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K761">
         <v>0.0004250398561842884</v>
@@ -30146,7 +30098,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K762">
         <v>0.00042240299091694</v>
@@ -30172,7 +30124,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K763">
         <v>0.0004182580825489408</v>
@@ -30198,7 +30150,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K764">
         <v>0.0004040348932302702</v>
@@ -30224,7 +30176,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K765">
         <v>0.0003934038511035025</v>
@@ -30250,7 +30202,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K766">
         <v>0.000383363619072782</v>
@@ -30276,7 +30228,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K767">
         <v>0.000363714034716768</v>
@@ -30328,7 +30280,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K769">
         <v>0.0003412281683131318</v>
@@ -30354,7 +30306,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K770">
         <v>0.0003412281683131318</v>
@@ -30380,7 +30332,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K771">
         <v>0.000298684019270848</v>
@@ -30406,7 +30358,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K772">
         <v>0.000298684019270848</v>
@@ -30432,7 +30384,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K773">
         <v>0.000298684019270848</v>
@@ -30458,7 +30410,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K774">
         <v>0.0002694674888246113</v>
@@ -30484,7 +30436,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K775">
         <v>0.0002401538562747644</v>
@@ -30510,7 +30462,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K776">
         <v>0.0002127785081375836</v>
@@ -30536,7 +30488,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K777">
         <v>0.0002127785081375836</v>
@@ -30562,7 +30514,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K778">
         <v>0.0002127785081375836</v>
@@ -30588,7 +30540,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K779">
         <v>0.0002127785081375836</v>
@@ -30614,7 +30566,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K780">
         <v>0.0002127785081375836</v>
@@ -30640,7 +30592,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K781">
         <v>0.0002127785081375836</v>
@@ -30666,7 +30618,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K782">
         <v>0.0001801148494533487</v>
@@ -30692,7 +30644,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K783">
         <v>0.0001698144202999854</v>
@@ -30718,7 +30670,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K784">
         <v>0.0001698144202999854</v>
@@ -30744,7 +30696,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K785">
         <v>0.0001468273560994101</v>
@@ -30770,7 +30722,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K786">
         <v>0.0001273604314408569</v>
@@ -30796,7 +30748,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K787">
         <v>0.0001273604314408569</v>
@@ -30822,7 +30774,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K788">
         <v>0.0001273604314408569</v>
@@ -30848,7 +30800,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K789">
         <v>0.0001273604314408569</v>
@@ -30874,7 +30826,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K790">
         <v>0.0001273604314408569</v>
@@ -30900,7 +30852,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K791">
         <v>0.0001273604314408569</v>
@@ -30926,7 +30878,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K792">
         <v>0.0001219151514783251</v>
@@ -30952,7 +30904,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K793">
         <v>9.411883281597717E-05</v>
@@ -30978,7 +30930,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K794">
         <v>8.620703033970882E-05</v>
@@ -31004,7 +30956,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K795">
         <v>8.620703033970882E-05</v>
@@ -31030,7 +30982,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K796">
         <v>8.620703033970882E-05</v>
@@ -31056,7 +31008,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K797">
         <v>8.620703033970882E-05</v>
@@ -31082,7 +31034,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K798">
         <v>6.775056652996813E-05</v>
@@ -31108,7 +31060,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K799">
         <v>4.79068850225708E-05</v>
@@ -31134,7 +31086,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K800">
         <v>4.79068850225708E-05</v>
@@ -31160,7 +31112,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K801">
         <v>4.79068850225708E-05</v>
@@ -31186,7 +31138,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K802">
         <v>4.79068850225708E-05</v>
@@ -31212,7 +31164,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K803">
         <v>4.79068850225708E-05</v>
@@ -31238,7 +31190,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K804">
         <v>4.79068850225708E-05</v>
@@ -31264,7 +31216,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K805">
         <v>4.79068850225708E-05</v>
@@ -31290,7 +31242,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K806">
         <v>4.79068850225708E-05</v>
@@ -31316,7 +31268,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K807">
         <v>4.79068850225708E-05</v>
@@ -31342,7 +31294,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K808">
         <v>4.79068850225708E-05</v>
@@ -31368,7 +31320,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K809">
         <v>4.79068850225708E-05</v>
@@ -31394,7 +31346,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K810">
         <v>4.350755810143283E-05</v>
@@ -31420,7 +31372,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K811">
         <v>4.350755810143283E-05</v>
@@ -31446,7 +31398,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K812">
         <v>2.251599700680516E-05</v>
@@ -31472,7 +31424,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K813">
         <v>1.592121416868802E-05</v>
@@ -31498,7 +31450,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K814">
         <v>1.592121416868802E-05</v>
@@ -31524,7 +31476,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K815">
         <v>1.592121416868802E-05</v>
@@ -31550,7 +31502,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K816">
         <v>1.592121416868802E-05</v>
@@ -31576,7 +31528,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K817">
         <v>1.592121416868802E-05</v>
@@ -31602,7 +31554,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K818">
         <v>1.592121416868802E-05</v>
@@ -31628,7 +31580,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K819">
         <v>1.592121416868802E-05</v>
@@ -31654,7 +31606,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K820">
         <v>1.592121416868802E-05</v>
@@ -31680,7 +31632,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K821">
         <v>1.592121416868802E-05</v>
@@ -31706,7 +31658,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K822">
         <v>1.592121416868802E-05</v>
@@ -31732,7 +31684,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K823">
         <v>1.592121416868802E-05</v>
@@ -31758,7 +31710,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K824">
         <v>1.592121416868802E-05</v>
@@ -31784,7 +31736,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K825">
         <v>1.592121416868802E-05</v>
@@ -31810,7 +31762,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K826">
         <v>1.592121416868802E-05</v>
@@ -31836,7 +31788,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K827">
         <v>6.738044619447957E-06</v>
@@ -31862,7 +31814,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K828">
         <v>0</v>
@@ -31888,7 +31840,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K829">
         <v>0</v>
@@ -31914,7 +31866,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K830">
         <v>0</v>
@@ -31940,7 +31892,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K831">
         <v>0</v>
@@ -31966,7 +31918,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K832">
         <v>0</v>
@@ -31992,7 +31944,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K833">
         <v>0</v>
@@ -32018,7 +31970,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K834">
         <v>0</v>
@@ -32044,7 +31996,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K835">
         <v>0</v>
@@ -32070,7 +32022,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K836">
         <v>0</v>
@@ -32096,7 +32048,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K837">
         <v>0</v>
@@ -32122,7 +32074,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K838">
         <v>0</v>
@@ -32148,7 +32100,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K839">
         <v>0</v>
